--- a/Daily updates.xlsx
+++ b/Daily updates.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -61,6 +61,30 @@
   </si>
   <si>
     <t>Task: Worked on refactoring the entire project, using classes for questions updating sql tables and procedures etc..</t>
+  </si>
+  <si>
+    <t>8 hours</t>
+  </si>
+  <si>
+    <t>Task:</t>
+  </si>
+  <si>
+    <t>7 hours</t>
+  </si>
+  <si>
+    <t>Task: Finished up the task and tested all corner cases, also added multi language</t>
+  </si>
+  <si>
+    <t>Self Learning: Started watching the pluralsight asp mvc course</t>
+  </si>
+  <si>
+    <t>1 hour</t>
+  </si>
+  <si>
+    <t>Task: Addressing the comments I got on the task</t>
+  </si>
+  <si>
+    <t>Self Learning: Continuing with the asp.net mvc course on pluralsight</t>
   </si>
 </sst>
 </file>
@@ -427,7 +451,7 @@
   <dimension ref="A1:C120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,24 +549,59 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="3">
+        <v>44448</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="A10" s="3">
+        <v>44451</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="A11" s="3">
+        <v>44451</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="3">
+        <v>44452</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="A13" s="3">
+        <v>44452</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>

--- a/Daily updates.xlsx
+++ b/Daily updates.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -85,6 +85,18 @@
   </si>
   <si>
     <t>Self Learning: Continuing with the asp.net mvc course on pluralsight</t>
+  </si>
+  <si>
+    <t>4 Hours</t>
+  </si>
+  <si>
+    <t>Self Learning: Watched videos on try catches in sql and transactions in sql, also watched videos on Delegates in c# and Eventhandlers</t>
+  </si>
+  <si>
+    <t>4.5 hours</t>
+  </si>
+  <si>
+    <t>Task: Updated the database procedures with try catch blocks and added transactions there, also added a new table that has a dataState value in it for updates etc, implemented the refresh on the controller side and hooked an event to it so that the UI can listen to that, removed transactions from the db class</t>
   </si>
 </sst>
 </file>
@@ -451,7 +463,7 @@
   <dimension ref="A1:C120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,12 +616,26 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="3">
+        <v>44453</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="A15" s="3">
+        <v>44453</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>

--- a/Daily updates.xlsx
+++ b/Daily updates.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>Task: Updated the database procedures with try catch blocks and added transactions there, also added a new table that has a dataState value in it for updates etc, implemented the refresh on the controller side and hooked an event to it so that the UI can listen to that, removed transactions from the db class</t>
+  </si>
+  <si>
+    <t>Self learning: Walking thro the ASP.NET MVC 5 Fundamnetals course</t>
+  </si>
+  <si>
+    <t>Task: Finishing up the task and fixing small corner cases, as well as doing the User documentation</t>
   </si>
 </sst>
 </file>
@@ -463,7 +469,7 @@
   <dimension ref="A1:C120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,70 +644,84 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>44454</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>44454</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
     </row>

--- a/Daily updates.xlsx
+++ b/Daily updates.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>Task: Finishing up the task and fixing small corner cases, as well as doing the User documentation</t>
+  </si>
+  <si>
+    <t>Task: Addressed the comments, used threads instead of timer, applied languages to questions type, changed valdiation implementation</t>
   </si>
 </sst>
 </file>
@@ -469,7 +472,7 @@
   <dimension ref="A1:C120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,12 +669,26 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
+      <c r="A18" s="3">
+        <v>44455</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
+      <c r="A19" s="3">
+        <v>44455</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>

--- a/Daily updates.xlsx
+++ b/Daily updates.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>Task: Addressed the comments, used threads instead of timer, applied languages to questions type, changed valdiation implementation</t>
+  </si>
+  <si>
+    <t>Self learning: Watched a couple of crash courses on asp.net mvc and continued with the pluralsight course</t>
+  </si>
+  <si>
+    <t>Task: worked on the end user documentataion</t>
   </si>
 </sst>
 </file>
@@ -472,7 +478,7 @@
   <dimension ref="A1:C120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,12 +697,26 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+      <c r="A20" s="3">
+        <v>44458</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
+      <c r="A21" s="3">
+        <v>44458</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
